--- a/Jasper Files/data/addNP/addNP-500pod-200pol.xlsx
+++ b/Jasper Files/data/addNP/addNP-500pod-200pol.xlsx
@@ -516,25 +516,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1166437603533268</v>
+        <v>0.1306707720505074</v>
       </c>
       <c r="C2">
-        <v>1257745</v>
+        <v>2616679</v>
       </c>
       <c r="D2">
-        <v>2240707</v>
+        <v>3453983</v>
       </c>
       <c r="E2">
-        <v>982962</v>
+        <v>837304</v>
       </c>
       <c r="F2">
-        <v>0.2024671658873558</v>
+        <v>0.2622557660797611</v>
       </c>
       <c r="G2">
-        <v>222967</v>
+        <v>231086</v>
       </c>
       <c r="H2">
-        <v>478366</v>
+        <v>486485</v>
       </c>
       <c r="I2">
         <v>255399</v>
@@ -545,25 +545,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1915448978543282</v>
+        <v>0.2778325349790975</v>
       </c>
       <c r="C3">
-        <v>1123022</v>
+        <v>3707206</v>
       </c>
       <c r="D3">
-        <v>2204980</v>
+        <v>4600077</v>
       </c>
       <c r="E3">
-        <v>1081958</v>
+        <v>892871</v>
       </c>
       <c r="F3">
-        <v>0.1860143542289734</v>
+        <v>0.2492515590274706</v>
       </c>
       <c r="G3">
-        <v>218233</v>
+        <v>224782</v>
       </c>
       <c r="H3">
-        <v>474096</v>
+        <v>480645</v>
       </c>
       <c r="I3">
         <v>255863</v>
@@ -574,25 +574,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1436831280589104</v>
+        <v>0.2008834809530526</v>
       </c>
       <c r="C4">
-        <v>1159229</v>
+        <v>3387249</v>
       </c>
       <c r="D4">
-        <v>2114582</v>
+        <v>4304469</v>
       </c>
       <c r="E4">
-        <v>955353</v>
+        <v>917220</v>
       </c>
       <c r="F4">
-        <v>0.1961520537734032</v>
+        <v>0.2079675139393657</v>
       </c>
       <c r="G4">
-        <v>218777</v>
+        <v>223515</v>
       </c>
       <c r="H4">
-        <v>474640</v>
+        <v>479378</v>
       </c>
       <c r="I4">
         <v>255863</v>
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1425127238035202</v>
+        <v>0.2087585119297728</v>
       </c>
       <c r="C5">
-        <v>1234401</v>
+        <v>3586847</v>
       </c>
       <c r="D5">
-        <v>2214678</v>
+        <v>4427287</v>
       </c>
       <c r="E5">
-        <v>980277</v>
+        <v>840440</v>
       </c>
       <c r="F5">
-        <v>0.2092731557786465</v>
+        <v>0.2386153829284012</v>
       </c>
       <c r="G5">
-        <v>217753</v>
+        <v>227731</v>
       </c>
       <c r="H5">
-        <v>473616</v>
+        <v>483570</v>
       </c>
       <c r="I5">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,28 +632,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.208690382540226</v>
+        <v>0.2248020290862769</v>
       </c>
       <c r="C6">
-        <v>1319405</v>
+        <v>3569076</v>
       </c>
       <c r="D6">
-        <v>2411953</v>
+        <v>4423783</v>
       </c>
       <c r="E6">
-        <v>1092548</v>
+        <v>854707</v>
       </c>
       <c r="F6">
-        <v>0.1901109479367733</v>
+        <v>0.2314783809706569</v>
       </c>
       <c r="G6">
-        <v>223065</v>
+        <v>226803</v>
       </c>
       <c r="H6">
-        <v>478928</v>
+        <v>482642</v>
       </c>
       <c r="I6">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -661,25 +661,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1010033041238785</v>
+        <v>0.2040416889358312</v>
       </c>
       <c r="C7">
-        <v>1258300</v>
+        <v>3756589</v>
       </c>
       <c r="D7">
-        <v>2237173</v>
+        <v>4565746</v>
       </c>
       <c r="E7">
-        <v>978873</v>
+        <v>809157</v>
       </c>
       <c r="F7">
-        <v>0.1885647922754288</v>
+        <v>0.2142839109292254</v>
       </c>
       <c r="G7">
-        <v>219089</v>
+        <v>229779</v>
       </c>
       <c r="H7">
-        <v>474928</v>
+        <v>485618</v>
       </c>
       <c r="I7">
         <v>255839</v>
@@ -690,28 +690,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2320830188691616</v>
+        <v>0.2362010619835928</v>
       </c>
       <c r="C8">
-        <v>1319666</v>
+        <v>3436786</v>
       </c>
       <c r="D8">
-        <v>2341932</v>
+        <v>4259383</v>
       </c>
       <c r="E8">
-        <v>1022266</v>
+        <v>822597</v>
       </c>
       <c r="F8">
-        <v>0.1926677823066711</v>
+        <v>0.2343956920085475</v>
       </c>
       <c r="G8">
-        <v>221433</v>
+        <v>225011</v>
       </c>
       <c r="H8">
-        <v>477296</v>
+        <v>480850</v>
       </c>
       <c r="I8">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -719,28 +719,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1664005033671856</v>
+        <v>0.1962403809884563</v>
       </c>
       <c r="C9">
-        <v>1211500</v>
+        <v>3297496</v>
       </c>
       <c r="D9">
-        <v>2238963</v>
+        <v>4163576</v>
       </c>
       <c r="E9">
-        <v>1027463</v>
+        <v>866080</v>
       </c>
       <c r="F9">
-        <v>0.2693539708852768</v>
+        <v>0.211058440967463</v>
       </c>
       <c r="G9">
-        <v>214097</v>
+        <v>227451</v>
       </c>
       <c r="H9">
-        <v>469936</v>
+        <v>483314</v>
       </c>
       <c r="I9">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -748,28 +748,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1094724759459496</v>
+        <v>0.1570261480519548</v>
       </c>
       <c r="C10">
-        <v>1130742</v>
+        <v>3205156</v>
       </c>
       <c r="D10">
-        <v>2137974</v>
+        <v>4059914</v>
       </c>
       <c r="E10">
-        <v>1007232</v>
+        <v>854758</v>
       </c>
       <c r="F10">
-        <v>0.1963404566049576</v>
+        <v>0.2100346819497645</v>
       </c>
       <c r="G10">
-        <v>218617</v>
+        <v>226547</v>
       </c>
       <c r="H10">
-        <v>474480</v>
+        <v>482386</v>
       </c>
       <c r="I10">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -777,28 +777,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1196480095386505</v>
+        <v>0.1669290169375017</v>
       </c>
       <c r="C11">
-        <v>1236955</v>
+        <v>3150350</v>
       </c>
       <c r="D11">
-        <v>2242187</v>
+        <v>3978809</v>
       </c>
       <c r="E11">
-        <v>1005232</v>
+        <v>828459</v>
       </c>
       <c r="F11">
-        <v>0.2249259054660797</v>
+        <v>0.19444388395641</v>
       </c>
       <c r="G11">
-        <v>218393</v>
+        <v>224915</v>
       </c>
       <c r="H11">
-        <v>474256</v>
+        <v>480754</v>
       </c>
       <c r="I11">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -806,28 +806,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1126174107193947</v>
+        <v>0.09723735391162336</v>
       </c>
       <c r="C12">
-        <v>1167655</v>
+        <v>1044472</v>
       </c>
       <c r="D12">
-        <v>2107716</v>
+        <v>2023774</v>
       </c>
       <c r="E12">
-        <v>940061</v>
+        <v>979302</v>
       </c>
       <c r="F12">
-        <v>0.2069973424077034</v>
+        <v>0.2132346000289544</v>
       </c>
       <c r="G12">
-        <v>217439</v>
+        <v>223801</v>
       </c>
       <c r="H12">
-        <v>473302</v>
+        <v>479640</v>
       </c>
       <c r="I12">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -835,28 +835,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1819084510207176</v>
+        <v>0.2250540449749678</v>
       </c>
       <c r="C13">
-        <v>1194553</v>
+        <v>3119921</v>
       </c>
       <c r="D13">
-        <v>2187085</v>
+        <v>3909287</v>
       </c>
       <c r="E13">
-        <v>992532</v>
+        <v>789366</v>
       </c>
       <c r="F13">
-        <v>0.139737356454134</v>
+        <v>0.2286838970612735</v>
       </c>
       <c r="G13">
-        <v>217713</v>
+        <v>225563</v>
       </c>
       <c r="H13">
-        <v>473552</v>
+        <v>481426</v>
       </c>
       <c r="I13">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,28 +864,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1316657699644566</v>
+        <v>0.1481444120872766</v>
       </c>
       <c r="C14">
-        <v>1106675</v>
+        <v>2796543</v>
       </c>
       <c r="D14">
-        <v>2102076</v>
+        <v>3660254</v>
       </c>
       <c r="E14">
-        <v>995401</v>
+        <v>863711</v>
       </c>
       <c r="F14">
-        <v>0.2019511833786964</v>
+        <v>0.2447137800045311</v>
       </c>
       <c r="G14">
-        <v>219321</v>
+        <v>223699</v>
       </c>
       <c r="H14">
-        <v>475184</v>
+        <v>479538</v>
       </c>
       <c r="I14">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -893,25 +893,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1660968102514744</v>
+        <v>0.2288340450031683</v>
       </c>
       <c r="C15">
-        <v>1337888</v>
+        <v>3524786</v>
       </c>
       <c r="D15">
-        <v>2299355</v>
+        <v>4398442</v>
       </c>
       <c r="E15">
-        <v>961467</v>
+        <v>873656</v>
       </c>
       <c r="F15">
-        <v>0.1951024532318115</v>
+        <v>0.2419761290075257</v>
       </c>
       <c r="G15">
-        <v>220441</v>
+        <v>225275</v>
       </c>
       <c r="H15">
-        <v>476304</v>
+        <v>481138</v>
       </c>
       <c r="I15">
         <v>255863</v>
@@ -922,25 +922,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2235513366758823</v>
+        <v>0.2600044920109212</v>
       </c>
       <c r="C16">
-        <v>1344726</v>
+        <v>3376817</v>
       </c>
       <c r="D16">
-        <v>2339128</v>
+        <v>4229236</v>
       </c>
       <c r="E16">
-        <v>994402</v>
+        <v>852419</v>
       </c>
       <c r="F16">
-        <v>0.1885474100708961</v>
+        <v>0.2165714610600844</v>
       </c>
       <c r="G16">
-        <v>220945</v>
+        <v>225459</v>
       </c>
       <c r="H16">
-        <v>476784</v>
+        <v>481298</v>
       </c>
       <c r="I16">
         <v>255839</v>
@@ -951,25 +951,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.144595205783844</v>
+        <v>0.1607676049461588</v>
       </c>
       <c r="C17">
-        <v>1263184</v>
+        <v>2964724</v>
       </c>
       <c r="D17">
-        <v>2234281</v>
+        <v>3841638</v>
       </c>
       <c r="E17">
-        <v>971097</v>
+        <v>876914</v>
       </c>
       <c r="F17">
-        <v>0.2177359350025654</v>
+        <v>0.2142220409587026</v>
       </c>
       <c r="G17">
-        <v>220473</v>
+        <v>228379</v>
       </c>
       <c r="H17">
-        <v>476336</v>
+        <v>484242</v>
       </c>
       <c r="I17">
         <v>255863</v>
@@ -980,28 +980,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.169938687235117</v>
+        <v>0.1319155789678916</v>
       </c>
       <c r="C18">
-        <v>1181880</v>
+        <v>1076671</v>
       </c>
       <c r="D18">
-        <v>2192905</v>
+        <v>2035165</v>
       </c>
       <c r="E18">
-        <v>1011025</v>
+        <v>958494</v>
       </c>
       <c r="F18">
-        <v>0.2007569447159767</v>
+        <v>0.2475007449975237</v>
       </c>
       <c r="G18">
-        <v>216889</v>
+        <v>227859</v>
       </c>
       <c r="H18">
-        <v>472752</v>
+        <v>483698</v>
       </c>
       <c r="I18">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1009,25 +1009,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1687055230140686</v>
+        <v>0.1306828650413081</v>
       </c>
       <c r="C19">
-        <v>1232622</v>
+        <v>2752147</v>
       </c>
       <c r="D19">
-        <v>2236177</v>
+        <v>3703303</v>
       </c>
       <c r="E19">
-        <v>1003555</v>
+        <v>951156</v>
       </c>
       <c r="F19">
-        <v>0.2187806628644466</v>
+        <v>0.2284991259220988</v>
       </c>
       <c r="G19">
-        <v>217393</v>
+        <v>226419</v>
       </c>
       <c r="H19">
-        <v>473232</v>
+        <v>482258</v>
       </c>
       <c r="I19">
         <v>255839</v>
@@ -1038,25 +1038,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1981474161148071</v>
+        <v>0.3383005049545318</v>
       </c>
       <c r="C20">
-        <v>1190531</v>
+        <v>3557362</v>
       </c>
       <c r="D20">
-        <v>2177984</v>
+        <v>4375011</v>
       </c>
       <c r="E20">
-        <v>987453</v>
+        <v>817649</v>
       </c>
       <c r="F20">
-        <v>0.1494965627789497</v>
+        <v>0.2328053889796138</v>
       </c>
       <c r="G20">
-        <v>219993</v>
+        <v>224731</v>
       </c>
       <c r="H20">
-        <v>475856</v>
+        <v>480594</v>
       </c>
       <c r="I20">
         <v>255863</v>
@@ -1067,28 +1067,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1902290545403957</v>
+        <v>0.1813890390330926</v>
       </c>
       <c r="C21">
-        <v>1289904</v>
+        <v>3036011</v>
       </c>
       <c r="D21">
-        <v>2179248</v>
+        <v>3964552</v>
       </c>
       <c r="E21">
-        <v>889344</v>
+        <v>928541</v>
       </c>
       <c r="F21">
-        <v>0.1833051405847073</v>
+        <v>0.1977602520491928</v>
       </c>
       <c r="G21">
-        <v>215697</v>
+        <v>226715</v>
       </c>
       <c r="H21">
-        <v>471536</v>
+        <v>482578</v>
       </c>
       <c r="I21">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1096,25 +1096,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1659062467515469</v>
+        <v>0.2795087510021403</v>
       </c>
       <c r="C22">
-        <v>1121730</v>
+        <v>3256653</v>
       </c>
       <c r="D22">
-        <v>2209314</v>
+        <v>4178765</v>
       </c>
       <c r="E22">
-        <v>1087584</v>
+        <v>922112</v>
       </c>
       <c r="F22">
-        <v>0.195307906717062</v>
+        <v>0.2162276719463989</v>
       </c>
       <c r="G22">
-        <v>220697</v>
+        <v>224027</v>
       </c>
       <c r="H22">
-        <v>476560</v>
+        <v>479890</v>
       </c>
       <c r="I22">
         <v>255863</v>
@@ -1125,28 +1125,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1209896244108677</v>
+        <v>0.1922503389650956</v>
       </c>
       <c r="C23">
-        <v>1178445</v>
+        <v>2795973</v>
       </c>
       <c r="D23">
-        <v>2165926</v>
+        <v>3649361</v>
       </c>
       <c r="E23">
-        <v>987481</v>
+        <v>853388</v>
       </c>
       <c r="F23">
-        <v>0.2012551128864288</v>
+        <v>0.2134140690322965</v>
       </c>
       <c r="G23">
-        <v>219833</v>
+        <v>225267</v>
       </c>
       <c r="H23">
-        <v>475696</v>
+        <v>481106</v>
       </c>
       <c r="I23">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2182617634534836</v>
+        <v>0.177690924028866</v>
       </c>
       <c r="C24">
-        <v>1333562</v>
+        <v>3582439</v>
       </c>
       <c r="D24">
-        <v>2317140</v>
+        <v>4441275</v>
       </c>
       <c r="E24">
-        <v>983578</v>
+        <v>858836</v>
       </c>
       <c r="F24">
-        <v>0.1847221031785011</v>
+        <v>0.2078132689930499</v>
       </c>
       <c r="G24">
-        <v>220249</v>
+        <v>227539</v>
       </c>
       <c r="H24">
-        <v>476112</v>
+        <v>483378</v>
       </c>
       <c r="I24">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1183,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2432834282517433</v>
+        <v>0.3645602930337191</v>
       </c>
       <c r="C25">
-        <v>1251095</v>
+        <v>3273327</v>
       </c>
       <c r="D25">
-        <v>2307019</v>
+        <v>4126285</v>
       </c>
       <c r="E25">
-        <v>1055924</v>
+        <v>852958</v>
       </c>
       <c r="F25">
-        <v>0.1467182710766792</v>
+        <v>0.1958281140541658</v>
       </c>
       <c r="G25">
-        <v>218905</v>
+        <v>224251</v>
       </c>
       <c r="H25">
-        <v>474768</v>
+        <v>480114</v>
       </c>
       <c r="I25">
         <v>255863</v>
@@ -1212,25 +1212,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1434405967593193</v>
+        <v>0.1632789530558512</v>
       </c>
       <c r="C26">
-        <v>1279962</v>
+        <v>2745693</v>
       </c>
       <c r="D26">
-        <v>2214463</v>
+        <v>3725957</v>
       </c>
       <c r="E26">
-        <v>934501</v>
+        <v>980264</v>
       </c>
       <c r="F26">
-        <v>0.2125375606119633</v>
+        <v>0.2435017040697858</v>
       </c>
       <c r="G26">
-        <v>218769</v>
+        <v>229363</v>
       </c>
       <c r="H26">
-        <v>474608</v>
+        <v>485202</v>
       </c>
       <c r="I26">
         <v>255839</v>
@@ -1241,25 +1241,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1818205043673515</v>
+        <v>0.1887170550180599</v>
       </c>
       <c r="C27">
-        <v>1383519</v>
+        <v>3206098</v>
       </c>
       <c r="D27">
-        <v>2376537</v>
+        <v>4061908</v>
       </c>
       <c r="E27">
-        <v>993018</v>
+        <v>855810</v>
       </c>
       <c r="F27">
-        <v>0.1817829459905624</v>
+        <v>0.2202122289454564</v>
       </c>
       <c r="G27">
-        <v>218297</v>
+        <v>225211</v>
       </c>
       <c r="H27">
-        <v>474160</v>
+        <v>481074</v>
       </c>
       <c r="I27">
         <v>255863</v>
@@ -1270,25 +1270,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1167799271643162</v>
+        <v>0.2361908280290663</v>
       </c>
       <c r="C28">
-        <v>1135257</v>
+        <v>3724529</v>
       </c>
       <c r="D28">
-        <v>2134207</v>
+        <v>4557481</v>
       </c>
       <c r="E28">
-        <v>998950</v>
+        <v>832952</v>
       </c>
       <c r="F28">
-        <v>0.2384387105703354</v>
+        <v>0.2212747350567952</v>
       </c>
       <c r="G28">
-        <v>220601</v>
+        <v>226139</v>
       </c>
       <c r="H28">
-        <v>476464</v>
+        <v>482002</v>
       </c>
       <c r="I28">
         <v>255863</v>
@@ -1299,25 +1299,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3255799263715744</v>
+        <v>0.2536936980905011</v>
       </c>
       <c r="C29">
-        <v>1199981</v>
+        <v>3367539</v>
       </c>
       <c r="D29">
-        <v>2229279</v>
+        <v>4194171</v>
       </c>
       <c r="E29">
-        <v>1029298</v>
+        <v>826632</v>
       </c>
       <c r="F29">
-        <v>0.1921777650713921</v>
+        <v>0.2115349119994789</v>
       </c>
       <c r="G29">
-        <v>222521</v>
+        <v>224731</v>
       </c>
       <c r="H29">
-        <v>478384</v>
+        <v>480594</v>
       </c>
       <c r="I29">
         <v>255863</v>
@@ -1328,28 +1328,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2002288289368153</v>
+        <v>0.1630753709468991</v>
       </c>
       <c r="C30">
-        <v>1270002</v>
+        <v>2676656</v>
       </c>
       <c r="D30">
-        <v>2271074</v>
+        <v>3644632</v>
       </c>
       <c r="E30">
-        <v>1001072</v>
+        <v>967976</v>
       </c>
       <c r="F30">
-        <v>0.2156690955162048</v>
+        <v>0.1838797089876607</v>
       </c>
       <c r="G30">
-        <v>219409</v>
+        <v>223579</v>
       </c>
       <c r="H30">
-        <v>475248</v>
+        <v>479442</v>
       </c>
       <c r="I30">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1357,25 +1357,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.08408759906888008</v>
+        <v>0.3579946149839088</v>
       </c>
       <c r="C31">
-        <v>1197203</v>
+        <v>3394261</v>
       </c>
       <c r="D31">
-        <v>2204546</v>
+        <v>4288166</v>
       </c>
       <c r="E31">
-        <v>1007343</v>
+        <v>893905</v>
       </c>
       <c r="F31">
-        <v>0.1829825155436993</v>
+        <v>0.1802729009650648</v>
       </c>
       <c r="G31">
-        <v>216625</v>
+        <v>225107</v>
       </c>
       <c r="H31">
-        <v>472464</v>
+        <v>480946</v>
       </c>
       <c r="I31">
         <v>255839</v>
@@ -1386,28 +1386,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1999571062624454</v>
+        <v>0.1100823699962348</v>
       </c>
       <c r="C32">
-        <v>1149829</v>
+        <v>1379862</v>
       </c>
       <c r="D32">
-        <v>2193128</v>
+        <v>2349029</v>
       </c>
       <c r="E32">
-        <v>1043299</v>
+        <v>969167</v>
       </c>
       <c r="F32">
-        <v>0.1380157694220543</v>
+        <v>0.2168187900679186</v>
       </c>
       <c r="G32">
-        <v>219929</v>
+        <v>225715</v>
       </c>
       <c r="H32">
-        <v>475792</v>
+        <v>481554</v>
       </c>
       <c r="I32">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2196834646165371</v>
+        <v>0.1061204529833049</v>
       </c>
       <c r="C33">
-        <v>1191047</v>
+        <v>2450397</v>
       </c>
       <c r="D33">
-        <v>2170735</v>
+        <v>2450723</v>
       </c>
       <c r="E33">
-        <v>979688</v>
+        <v>326</v>
       </c>
       <c r="F33">
-        <v>0.1462103836238384</v>
+        <v>0.2162735559977591</v>
       </c>
       <c r="G33">
-        <v>218649</v>
+        <v>226443</v>
       </c>
       <c r="H33">
-        <v>474512</v>
+        <v>482282</v>
       </c>
       <c r="I33">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1444,25 +1444,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2110955454409122</v>
+        <v>0.124352119048126</v>
       </c>
       <c r="C34">
-        <v>1117390</v>
+        <v>2825034</v>
       </c>
       <c r="D34">
-        <v>2128820</v>
+        <v>3806498</v>
       </c>
       <c r="E34">
-        <v>1011430</v>
+        <v>981464</v>
       </c>
       <c r="F34">
-        <v>0.1511958166956902</v>
+        <v>0.1910920049995184</v>
       </c>
       <c r="G34">
-        <v>219641</v>
+        <v>224507</v>
       </c>
       <c r="H34">
-        <v>475504</v>
+        <v>480370</v>
       </c>
       <c r="I34">
         <v>255863</v>
@@ -1473,25 +1473,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1231863386929035</v>
+        <v>0.1134748669574037</v>
       </c>
       <c r="C35">
-        <v>1282094</v>
+        <v>1045053</v>
       </c>
       <c r="D35">
-        <v>2208376</v>
+        <v>2031438</v>
       </c>
       <c r="E35">
-        <v>926282</v>
+        <v>986385</v>
       </c>
       <c r="F35">
-        <v>0.190071664750576</v>
+        <v>0.1994883820880204</v>
       </c>
       <c r="G35">
-        <v>218961</v>
+        <v>225459</v>
       </c>
       <c r="H35">
-        <v>474800</v>
+        <v>481298</v>
       </c>
       <c r="I35">
         <v>255839</v>
@@ -1502,28 +1502,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1606780216097832</v>
+        <v>0.223353300942108</v>
       </c>
       <c r="C36">
-        <v>1227643</v>
+        <v>1851502</v>
       </c>
       <c r="D36">
-        <v>2220700</v>
+        <v>2828344</v>
       </c>
       <c r="E36">
-        <v>993057</v>
+        <v>976842</v>
       </c>
       <c r="F36">
-        <v>0.1992925032973289</v>
+        <v>0.2023446180392057</v>
       </c>
       <c r="G36">
-        <v>220921</v>
+        <v>225419</v>
       </c>
       <c r="H36">
-        <v>476784</v>
+        <v>481258</v>
       </c>
       <c r="I36">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1531,25 +1531,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1473538465797901</v>
+        <v>0.2178451420040801</v>
       </c>
       <c r="C37">
-        <v>1225871</v>
+        <v>3406433</v>
       </c>
       <c r="D37">
-        <v>2301296</v>
+        <v>4211404</v>
       </c>
       <c r="E37">
-        <v>1075425</v>
+        <v>804971</v>
       </c>
       <c r="F37">
-        <v>0.1996383778750896</v>
+        <v>0.2344104800140485</v>
       </c>
       <c r="G37">
-        <v>219545</v>
+        <v>227163</v>
       </c>
       <c r="H37">
-        <v>475408</v>
+        <v>483026</v>
       </c>
       <c r="I37">
         <v>255863</v>
@@ -1560,25 +1560,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.282840620726347</v>
+        <v>0.1950467870337889</v>
       </c>
       <c r="C38">
-        <v>1229751</v>
+        <v>3242058</v>
       </c>
       <c r="D38">
-        <v>2276929</v>
+        <v>4055359</v>
       </c>
       <c r="E38">
-        <v>1047178</v>
+        <v>813301</v>
       </c>
       <c r="F38">
-        <v>0.1981610506772995</v>
+        <v>0.2216146009741351</v>
       </c>
       <c r="G38">
-        <v>216985</v>
+        <v>226715</v>
       </c>
       <c r="H38">
-        <v>472848</v>
+        <v>482578</v>
       </c>
       <c r="I38">
         <v>255863</v>
@@ -1589,28 +1589,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1790258176624775</v>
+        <v>0.1577275909949094</v>
       </c>
       <c r="C39">
-        <v>1100477</v>
+        <v>2784532</v>
       </c>
       <c r="D39">
-        <v>2108828</v>
+        <v>3747368</v>
       </c>
       <c r="E39">
-        <v>1008351</v>
+        <v>962836</v>
       </c>
       <c r="F39">
-        <v>0.1909895278513432</v>
+        <v>0.2139335350366309</v>
       </c>
       <c r="G39">
-        <v>217657</v>
+        <v>230419</v>
       </c>
       <c r="H39">
-        <v>473520</v>
+        <v>486258</v>
       </c>
       <c r="I39">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1618,28 +1618,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1544024311006069</v>
+        <v>0.2088422330562025</v>
       </c>
       <c r="C40">
-        <v>1117727</v>
+        <v>2985141</v>
       </c>
       <c r="D40">
-        <v>2154471</v>
+        <v>3956590</v>
       </c>
       <c r="E40">
-        <v>1036744</v>
+        <v>971449</v>
       </c>
       <c r="F40">
-        <v>0.1966298371553421</v>
+        <v>0.186387601075694</v>
       </c>
       <c r="G40">
-        <v>220761</v>
+        <v>225523</v>
       </c>
       <c r="H40">
-        <v>476624</v>
+        <v>481362</v>
       </c>
       <c r="I40">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1647,28 +1647,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1221153512597084</v>
+        <v>0.2197185439290479</v>
       </c>
       <c r="C41">
-        <v>1147698</v>
+        <v>3129688</v>
       </c>
       <c r="D41">
-        <v>2127833</v>
+        <v>4085464</v>
       </c>
       <c r="E41">
-        <v>980135</v>
+        <v>955776</v>
       </c>
       <c r="F41">
-        <v>0.1991259194910526</v>
+        <v>0.2174431680468842</v>
       </c>
       <c r="G41">
-        <v>218489</v>
+        <v>228115</v>
       </c>
       <c r="H41">
-        <v>474352</v>
+        <v>483954</v>
       </c>
       <c r="I41">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1676,28 +1676,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1949756257236004</v>
+        <v>0.1848256110679358</v>
       </c>
       <c r="C42">
-        <v>1160278</v>
+        <v>2751566</v>
       </c>
       <c r="D42">
-        <v>2113775</v>
+        <v>3729485</v>
       </c>
       <c r="E42">
-        <v>953497</v>
+        <v>977919</v>
       </c>
       <c r="F42">
-        <v>0.1906303577125072</v>
+        <v>0.148309363052249</v>
       </c>
       <c r="G42">
-        <v>220761</v>
+        <v>226003</v>
       </c>
       <c r="H42">
-        <v>476624</v>
+        <v>481842</v>
       </c>
       <c r="I42">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1705,28 +1705,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1575943417847157</v>
+        <v>0.3454726110212505</v>
       </c>
       <c r="C43">
-        <v>1255509</v>
+        <v>3617691</v>
       </c>
       <c r="D43">
-        <v>2237908</v>
+        <v>4529195</v>
       </c>
       <c r="E43">
-        <v>982399</v>
+        <v>911504</v>
       </c>
       <c r="F43">
-        <v>0.2311524152755737</v>
+        <v>0.2377875129459426</v>
       </c>
       <c r="G43">
-        <v>220313</v>
+        <v>225683</v>
       </c>
       <c r="H43">
-        <v>476176</v>
+        <v>481522</v>
       </c>
       <c r="I43">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1734,25 +1734,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1070106253027916</v>
+        <v>0.1669118819991127</v>
       </c>
       <c r="C44">
-        <v>1171352</v>
+        <v>2919537</v>
       </c>
       <c r="D44">
-        <v>2175706</v>
+        <v>3832337</v>
       </c>
       <c r="E44">
-        <v>1004354</v>
+        <v>912800</v>
       </c>
       <c r="F44">
-        <v>0.195088803768158</v>
+        <v>0.2079034959897399</v>
       </c>
       <c r="G44">
-        <v>219449</v>
+        <v>229019</v>
       </c>
       <c r="H44">
-        <v>475312</v>
+        <v>484882</v>
       </c>
       <c r="I44">
         <v>255863</v>
@@ -1763,25 +1763,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1725906282663345</v>
+        <v>0.2770396799314767</v>
       </c>
       <c r="C45">
-        <v>1171730</v>
+        <v>3813105</v>
       </c>
       <c r="D45">
-        <v>2168125</v>
+        <v>4720563</v>
       </c>
       <c r="E45">
-        <v>996395</v>
+        <v>907458</v>
       </c>
       <c r="F45">
-        <v>0.213729240000248</v>
+        <v>0.2106750319944695</v>
       </c>
       <c r="G45">
-        <v>221273</v>
+        <v>222619</v>
       </c>
       <c r="H45">
-        <v>477136</v>
+        <v>478482</v>
       </c>
       <c r="I45">
         <v>255863</v>
@@ -1792,25 +1792,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.07935570180416107</v>
+        <v>0.1863925009965897</v>
       </c>
       <c r="C46">
-        <v>1061556</v>
+        <v>3217301</v>
       </c>
       <c r="D46">
-        <v>2058463</v>
+        <v>4084989</v>
       </c>
       <c r="E46">
-        <v>996907</v>
+        <v>867688</v>
       </c>
       <c r="F46">
-        <v>0.1843286827206612</v>
+        <v>0.2409303169697523</v>
       </c>
       <c r="G46">
-        <v>216345</v>
+        <v>226395</v>
       </c>
       <c r="H46">
-        <v>472208</v>
+        <v>482258</v>
       </c>
       <c r="I46">
         <v>255863</v>
@@ -1821,25 +1821,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1957146823406219</v>
+        <v>0.2482615859480575</v>
       </c>
       <c r="C47">
-        <v>1196006</v>
+        <v>1274067</v>
       </c>
       <c r="D47">
-        <v>2154725</v>
+        <v>2180455</v>
       </c>
       <c r="E47">
-        <v>958719</v>
+        <v>906388</v>
       </c>
       <c r="F47">
-        <v>0.1403513588011265</v>
+        <v>0.2368703249376267</v>
       </c>
       <c r="G47">
-        <v>218201</v>
+        <v>226875</v>
       </c>
       <c r="H47">
-        <v>474064</v>
+        <v>482738</v>
       </c>
       <c r="I47">
         <v>255863</v>
@@ -1850,28 +1850,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.159710556268692</v>
+        <v>0.2124877460300922</v>
       </c>
       <c r="C48">
-        <v>1127765</v>
+        <v>3227863</v>
       </c>
       <c r="D48">
-        <v>2138123</v>
+        <v>4203311</v>
       </c>
       <c r="E48">
-        <v>1010358</v>
+        <v>975448</v>
       </c>
       <c r="F48">
-        <v>0.2164262942969799</v>
+        <v>0.2332333041122183</v>
       </c>
       <c r="G48">
-        <v>220145</v>
+        <v>224923</v>
       </c>
       <c r="H48">
-        <v>475984</v>
+        <v>480786</v>
       </c>
       <c r="I48">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1879,25 +1879,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.2424166798591614</v>
+        <v>0.1705485859420151</v>
       </c>
       <c r="C49">
-        <v>1245722</v>
+        <v>3508463</v>
       </c>
       <c r="D49">
-        <v>2264592</v>
+        <v>4375284</v>
       </c>
       <c r="E49">
-        <v>1018870</v>
+        <v>866821</v>
       </c>
       <c r="F49">
-        <v>0.2129471935331821</v>
+        <v>0.2028942640172318</v>
       </c>
       <c r="G49">
-        <v>219737</v>
+        <v>229211</v>
       </c>
       <c r="H49">
-        <v>475600</v>
+        <v>485074</v>
       </c>
       <c r="I49">
         <v>255863</v>
@@ -1908,25 +1908,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1940311267971992</v>
+        <v>0.4058166570030153</v>
       </c>
       <c r="C50">
-        <v>1262774</v>
+        <v>3893593</v>
       </c>
       <c r="D50">
-        <v>2256325</v>
+        <v>4796102</v>
       </c>
       <c r="E50">
-        <v>993551</v>
+        <v>902509</v>
       </c>
       <c r="F50">
-        <v>0.1514380238950253</v>
+        <v>0.2091532440390438</v>
       </c>
       <c r="G50">
-        <v>220345</v>
+        <v>228507</v>
       </c>
       <c r="H50">
-        <v>476208</v>
+        <v>484370</v>
       </c>
       <c r="I50">
         <v>255863</v>
@@ -1937,25 +1937,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1640347056090832</v>
+        <v>0.2000986100174487</v>
       </c>
       <c r="C51">
-        <v>1289566</v>
+        <v>3003933</v>
       </c>
       <c r="D51">
-        <v>2328228</v>
+        <v>3866651</v>
       </c>
       <c r="E51">
-        <v>1038662</v>
+        <v>862718</v>
       </c>
       <c r="F51">
-        <v>0.1565266437828541</v>
+        <v>0.211713447002694</v>
       </c>
       <c r="G51">
-        <v>216409</v>
+        <v>223163</v>
       </c>
       <c r="H51">
-        <v>472272</v>
+        <v>479026</v>
       </c>
       <c r="I51">
         <v>255863</v>
@@ -1966,25 +1966,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1706232279539108</v>
+        <v>0.1788307069800794</v>
       </c>
       <c r="C52">
-        <v>1406976</v>
+        <v>2991608</v>
       </c>
       <c r="D52">
-        <v>2406383</v>
+        <v>3878392</v>
       </c>
       <c r="E52">
-        <v>999407</v>
+        <v>886784</v>
       </c>
       <c r="F52">
-        <v>0.1583064571022987</v>
+        <v>0.1876171830808744</v>
       </c>
       <c r="G52">
-        <v>217945</v>
+        <v>230939</v>
       </c>
       <c r="H52">
-        <v>473808</v>
+        <v>486802</v>
       </c>
       <c r="I52">
         <v>255863</v>
@@ -1995,25 +1995,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1046348586678505</v>
+        <v>0.2773549780249596</v>
       </c>
       <c r="C53">
-        <v>1231353</v>
+        <v>3622897</v>
       </c>
       <c r="D53">
-        <v>2227355</v>
+        <v>4477590</v>
       </c>
       <c r="E53">
-        <v>996002</v>
+        <v>854693</v>
       </c>
       <c r="F53">
-        <v>0.2170595079660416</v>
+        <v>0.1869523799978197</v>
       </c>
       <c r="G53">
-        <v>220633</v>
+        <v>222907</v>
       </c>
       <c r="H53">
-        <v>476496</v>
+        <v>478770</v>
       </c>
       <c r="I53">
         <v>255863</v>
@@ -2024,25 +2024,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.2235817387700081</v>
+        <v>0.1551937320036814</v>
       </c>
       <c r="C54">
-        <v>1176280</v>
+        <v>3160989</v>
       </c>
       <c r="D54">
-        <v>2198946</v>
+        <v>3992977</v>
       </c>
       <c r="E54">
-        <v>1022666</v>
+        <v>831988</v>
       </c>
       <c r="F54">
-        <v>0.1842095479369164</v>
+        <v>0.2112280579749495</v>
       </c>
       <c r="G54">
-        <v>222161</v>
+        <v>227339</v>
       </c>
       <c r="H54">
-        <v>478000</v>
+        <v>483178</v>
       </c>
       <c r="I54">
         <v>255839</v>
@@ -2053,25 +2053,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1685076840221882</v>
+        <v>0.2026807829970494</v>
       </c>
       <c r="C55">
-        <v>1116094</v>
+        <v>2995061</v>
       </c>
       <c r="D55">
-        <v>2156344</v>
+        <v>3955411</v>
       </c>
       <c r="E55">
-        <v>1040250</v>
+        <v>960350</v>
       </c>
       <c r="F55">
-        <v>0.2099366709589958</v>
+        <v>0.2134183580055833</v>
       </c>
       <c r="G55">
-        <v>220345</v>
+        <v>229595</v>
       </c>
       <c r="H55">
-        <v>476208</v>
+        <v>485458</v>
       </c>
       <c r="I55">
         <v>255863</v>
@@ -2082,28 +2082,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1638607122004032</v>
+        <v>0.1682675170013681</v>
       </c>
       <c r="C56">
-        <v>1228165</v>
+        <v>3167983</v>
       </c>
       <c r="D56">
-        <v>2204952</v>
+        <v>4055545</v>
       </c>
       <c r="E56">
-        <v>976787</v>
+        <v>887562</v>
       </c>
       <c r="F56">
-        <v>0.1550614088773727</v>
+        <v>0.2431897380156443</v>
       </c>
       <c r="G56">
-        <v>220529</v>
+        <v>226651</v>
       </c>
       <c r="H56">
-        <v>476368</v>
+        <v>482514</v>
       </c>
       <c r="I56">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2111,25 +2111,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1661914214491844</v>
+        <v>0.1735875150188804</v>
       </c>
       <c r="C57">
-        <v>1243454</v>
+        <v>3084108</v>
       </c>
       <c r="D57">
-        <v>2253058</v>
+        <v>3995291</v>
       </c>
       <c r="E57">
-        <v>1009604</v>
+        <v>911183</v>
       </c>
       <c r="F57">
-        <v>0.2178265601396561</v>
+        <v>0.2282753919716924</v>
       </c>
       <c r="G57">
-        <v>216409</v>
+        <v>223675</v>
       </c>
       <c r="H57">
-        <v>472272</v>
+        <v>479538</v>
       </c>
       <c r="I57">
         <v>255863</v>
@@ -2140,25 +2140,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1285538449883461</v>
+        <v>0.2580313080688938</v>
       </c>
       <c r="C58">
-        <v>1114698</v>
+        <v>3169653</v>
       </c>
       <c r="D58">
-        <v>2200486</v>
+        <v>4116978</v>
       </c>
       <c r="E58">
-        <v>1085788</v>
+        <v>947325</v>
       </c>
       <c r="F58">
-        <v>0.1974988728761673</v>
+        <v>0.2375488799298182</v>
       </c>
       <c r="G58">
-        <v>219545</v>
+        <v>223835</v>
       </c>
       <c r="H58">
-        <v>475408</v>
+        <v>479698</v>
       </c>
       <c r="I58">
         <v>255863</v>
@@ -2169,25 +2169,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1502050049602985</v>
+        <v>0.172922155004926</v>
       </c>
       <c r="C59">
-        <v>1132729</v>
+        <v>3024749</v>
       </c>
       <c r="D59">
-        <v>2112688</v>
+        <v>3951109</v>
       </c>
       <c r="E59">
-        <v>979959</v>
+        <v>926360</v>
       </c>
       <c r="F59">
-        <v>0.2295735590159893</v>
+        <v>0.2700880109332502</v>
       </c>
       <c r="G59">
-        <v>222129</v>
+        <v>227219</v>
       </c>
       <c r="H59">
-        <v>477968</v>
+        <v>483058</v>
       </c>
       <c r="I59">
         <v>255839</v>
@@ -2198,25 +2198,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1940120570361614</v>
+        <v>0.3117336359573528</v>
       </c>
       <c r="C60">
-        <v>1331005</v>
+        <v>3205628</v>
       </c>
       <c r="D60">
-        <v>2362483</v>
+        <v>4257314</v>
       </c>
       <c r="E60">
-        <v>1031478</v>
+        <v>1051686</v>
       </c>
       <c r="F60">
-        <v>0.1898272819817066</v>
+        <v>0.2307982079219073</v>
       </c>
       <c r="G60">
-        <v>223001</v>
+        <v>227419</v>
       </c>
       <c r="H60">
-        <v>478864</v>
+        <v>483282</v>
       </c>
       <c r="I60">
         <v>255863</v>
@@ -2227,28 +2227,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1195136196911335</v>
+        <v>0.2475686239777133</v>
       </c>
       <c r="C61">
-        <v>1225471</v>
+        <v>3795178</v>
       </c>
       <c r="D61">
-        <v>2234697</v>
+        <v>4657989</v>
       </c>
       <c r="E61">
-        <v>1009226</v>
+        <v>862811</v>
       </c>
       <c r="F61">
-        <v>0.2060309574007988</v>
+        <v>0.2320566539419815</v>
       </c>
       <c r="G61">
-        <v>218801</v>
+        <v>226907</v>
       </c>
       <c r="H61">
-        <v>474640</v>
+        <v>482770</v>
       </c>
       <c r="I61">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2256,28 +2256,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1939584612846375</v>
+        <v>0.161781303002499</v>
       </c>
       <c r="C62">
-        <v>1258902</v>
+        <v>2783133</v>
       </c>
       <c r="D62">
-        <v>2194281</v>
+        <v>3739940</v>
       </c>
       <c r="E62">
-        <v>935379</v>
+        <v>956807</v>
       </c>
       <c r="F62">
-        <v>0.1837495788931847</v>
+        <v>0.2170695349341258</v>
       </c>
       <c r="G62">
-        <v>218129</v>
+        <v>225243</v>
       </c>
       <c r="H62">
-        <v>473968</v>
+        <v>481106</v>
       </c>
       <c r="I62">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2285,28 +2285,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1213174425065517</v>
+        <v>0.1884653399465606</v>
       </c>
       <c r="C63">
-        <v>1128225</v>
+        <v>2824133</v>
       </c>
       <c r="D63">
-        <v>2201504</v>
+        <v>3796523</v>
       </c>
       <c r="E63">
-        <v>1073279</v>
+        <v>972390</v>
       </c>
       <c r="F63">
-        <v>0.1934525966644287</v>
+        <v>0.2200209200382233</v>
       </c>
       <c r="G63">
-        <v>217529</v>
+        <v>227827</v>
       </c>
       <c r="H63">
-        <v>473392</v>
+        <v>483666</v>
       </c>
       <c r="I63">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2314,25 +2314,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1384789757430553</v>
+        <v>0.2046385610010475</v>
       </c>
       <c r="C64">
-        <v>1265057</v>
+        <v>3091939</v>
       </c>
       <c r="D64">
-        <v>2251095</v>
+        <v>3864922</v>
       </c>
       <c r="E64">
-        <v>986038</v>
+        <v>772983</v>
       </c>
       <c r="F64">
-        <v>0.1754370220005512</v>
+        <v>0.2181366629665717</v>
       </c>
       <c r="G64">
-        <v>217465</v>
+        <v>225883</v>
       </c>
       <c r="H64">
-        <v>473328</v>
+        <v>481746</v>
       </c>
       <c r="I64">
         <v>255863</v>
@@ -2343,25 +2343,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1792011372745037</v>
+        <v>0.1561704929918051</v>
       </c>
       <c r="C65">
-        <v>1223994</v>
+        <v>2790057</v>
       </c>
       <c r="D65">
-        <v>2155758</v>
+        <v>3747070</v>
       </c>
       <c r="E65">
-        <v>931764</v>
+        <v>957013</v>
       </c>
       <c r="F65">
-        <v>0.1517420448362827</v>
+        <v>0.1915346659952775</v>
       </c>
       <c r="G65">
-        <v>217049</v>
+        <v>227867</v>
       </c>
       <c r="H65">
-        <v>472912</v>
+        <v>483730</v>
       </c>
       <c r="I65">
         <v>255863</v>
@@ -2372,28 +2372,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1817273385822773</v>
+        <v>0.3102813760051504</v>
       </c>
       <c r="C66">
-        <v>1099752</v>
+        <v>2466375</v>
       </c>
       <c r="D66">
-        <v>2122291</v>
+        <v>3276854</v>
       </c>
       <c r="E66">
-        <v>1022539</v>
+        <v>810479</v>
       </c>
       <c r="F66">
-        <v>0.1992934867739677</v>
+        <v>0.2336861200165004</v>
       </c>
       <c r="G66">
-        <v>216881</v>
+        <v>224763</v>
       </c>
       <c r="H66">
-        <v>472720</v>
+        <v>480626</v>
       </c>
       <c r="I66">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2401,28 +2401,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1620602644979954</v>
+        <v>0.4360369950300083</v>
       </c>
       <c r="C67">
-        <v>1305733</v>
+        <v>4108237</v>
       </c>
       <c r="D67">
-        <v>2228039</v>
+        <v>4947454</v>
       </c>
       <c r="E67">
-        <v>922306</v>
+        <v>839217</v>
       </c>
       <c r="F67">
-        <v>0.2010138519108295</v>
+        <v>0.2419476290233433</v>
       </c>
       <c r="G67">
-        <v>221457</v>
+        <v>228795</v>
       </c>
       <c r="H67">
-        <v>477296</v>
+        <v>484658</v>
       </c>
       <c r="I67">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2430,28 +2430,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.09543370082974434</v>
+        <v>0.1815871290164068</v>
       </c>
       <c r="C68">
-        <v>1259979</v>
+        <v>3298161</v>
       </c>
       <c r="D68">
-        <v>2236057</v>
+        <v>4062741</v>
       </c>
       <c r="E68">
-        <v>976078</v>
+        <v>764580</v>
       </c>
       <c r="F68">
-        <v>0.1849555931985378</v>
+        <v>0.2173532509477809</v>
       </c>
       <c r="G68">
-        <v>218961</v>
+        <v>228763</v>
       </c>
       <c r="H68">
-        <v>474800</v>
+        <v>484626</v>
       </c>
       <c r="I68">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2459,28 +2459,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1217724159359932</v>
+        <v>0.2367715489817783</v>
       </c>
       <c r="C69">
-        <v>1225043</v>
+        <v>3260035</v>
       </c>
       <c r="D69">
-        <v>2227722</v>
+        <v>4044495</v>
       </c>
       <c r="E69">
-        <v>1002679</v>
+        <v>784460</v>
       </c>
       <c r="F69">
-        <v>0.1870079413056374</v>
+        <v>0.2231525869574398</v>
       </c>
       <c r="G69">
-        <v>218577</v>
+        <v>222043</v>
       </c>
       <c r="H69">
-        <v>474416</v>
+        <v>477906</v>
       </c>
       <c r="I69">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2488,25 +2488,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2903944179415703</v>
+        <v>0.2873884469736367</v>
       </c>
       <c r="C70">
-        <v>1328827</v>
+        <v>3108517</v>
       </c>
       <c r="D70">
-        <v>2328288</v>
+        <v>4073066</v>
       </c>
       <c r="E70">
-        <v>999461</v>
+        <v>964549</v>
       </c>
       <c r="F70">
-        <v>0.1877970732748508</v>
+        <v>0.2085053349146619</v>
       </c>
       <c r="G70">
-        <v>220249</v>
+        <v>228027</v>
       </c>
       <c r="H70">
-        <v>476112</v>
+        <v>483890</v>
       </c>
       <c r="I70">
         <v>255863</v>
@@ -2517,25 +2517,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1761826165020466</v>
+        <v>0.1735098699573427</v>
       </c>
       <c r="C71">
-        <v>1156359</v>
+        <v>2667655</v>
       </c>
       <c r="D71">
-        <v>2164129</v>
+        <v>3626657</v>
       </c>
       <c r="E71">
-        <v>1007770</v>
+        <v>959002</v>
       </c>
       <c r="F71">
-        <v>0.2032798640429974</v>
+        <v>0.2128069240134209</v>
       </c>
       <c r="G71">
-        <v>217657</v>
+        <v>227131</v>
       </c>
       <c r="H71">
-        <v>473520</v>
+        <v>482994</v>
       </c>
       <c r="I71">
         <v>255863</v>
@@ -2546,25 +2546,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.132157951593399</v>
+        <v>0.1260013679275289</v>
       </c>
       <c r="C72">
-        <v>1164179</v>
+        <v>2752448</v>
       </c>
       <c r="D72">
-        <v>2175774</v>
+        <v>3659268</v>
       </c>
       <c r="E72">
-        <v>1011595</v>
+        <v>906820</v>
       </c>
       <c r="F72">
-        <v>0.1904866062104702</v>
+        <v>0.2056045420467854</v>
       </c>
       <c r="G72">
-        <v>215161</v>
+        <v>224443</v>
       </c>
       <c r="H72">
-        <v>471024</v>
+        <v>480306</v>
       </c>
       <c r="I72">
         <v>255863</v>
@@ -2575,28 +2575,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1325502060353756</v>
+        <v>0.1956904890248552</v>
       </c>
       <c r="C73">
-        <v>1220128</v>
+        <v>2882894</v>
       </c>
       <c r="D73">
-        <v>2158736</v>
+        <v>3860350</v>
       </c>
       <c r="E73">
-        <v>938608</v>
+        <v>977456</v>
       </c>
       <c r="F73">
-        <v>0.1909701786935329</v>
+        <v>0.2260014869971201</v>
       </c>
       <c r="G73">
-        <v>218009</v>
+        <v>226579</v>
       </c>
       <c r="H73">
-        <v>473872</v>
+        <v>482418</v>
       </c>
       <c r="I73">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2604,28 +2604,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2808833867311478</v>
+        <v>0.1778745480114594</v>
       </c>
       <c r="C74">
-        <v>1181118</v>
+        <v>3368348</v>
       </c>
       <c r="D74">
-        <v>2172394</v>
+        <v>4236954</v>
       </c>
       <c r="E74">
-        <v>991276</v>
+        <v>868606</v>
       </c>
       <c r="F74">
-        <v>0.1879116781055927</v>
+        <v>0.2630098180379719</v>
       </c>
       <c r="G74">
-        <v>218329</v>
+        <v>225203</v>
       </c>
       <c r="H74">
-        <v>474192</v>
+        <v>481042</v>
       </c>
       <c r="I74">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2633,28 +2633,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1480368822813034</v>
+        <v>0.2565167089924216</v>
       </c>
       <c r="C75">
-        <v>1212632</v>
+        <v>3200013</v>
       </c>
       <c r="D75">
-        <v>2224118</v>
+        <v>4176909</v>
       </c>
       <c r="E75">
-        <v>1011486</v>
+        <v>976896</v>
       </c>
       <c r="F75">
-        <v>0.2138531915843487</v>
+        <v>0.2189760690089315</v>
       </c>
       <c r="G75">
-        <v>218545</v>
+        <v>227419</v>
       </c>
       <c r="H75">
-        <v>474384</v>
+        <v>483282</v>
       </c>
       <c r="I75">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2662,28 +2662,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.141136109828949</v>
+        <v>0.1618494590511546</v>
       </c>
       <c r="C76">
-        <v>1306661</v>
+        <v>3049911</v>
       </c>
       <c r="D76">
-        <v>2226969</v>
+        <v>3914502</v>
       </c>
       <c r="E76">
-        <v>920308</v>
+        <v>864591</v>
       </c>
       <c r="F76">
-        <v>0.2305654063820839</v>
+        <v>0.2597691909177229</v>
       </c>
       <c r="G76">
-        <v>220537</v>
+        <v>224691</v>
       </c>
       <c r="H76">
-        <v>476400</v>
+        <v>480530</v>
       </c>
       <c r="I76">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2691,28 +2691,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1899679228663445</v>
+        <v>0.1988018649863079</v>
       </c>
       <c r="C77">
-        <v>1165270</v>
+        <v>1277740</v>
       </c>
       <c r="D77">
-        <v>2155836</v>
+        <v>2231945</v>
       </c>
       <c r="E77">
-        <v>990566</v>
+        <v>954205</v>
       </c>
       <c r="F77">
-        <v>0.1451666243374348</v>
+        <v>0.245772170019336</v>
       </c>
       <c r="G77">
-        <v>220457</v>
+        <v>227451</v>
       </c>
       <c r="H77">
-        <v>476296</v>
+        <v>483314</v>
       </c>
       <c r="I77">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2720,28 +2720,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.2069928757846355</v>
+        <v>0.2643845939310268</v>
       </c>
       <c r="C78">
-        <v>1142384</v>
+        <v>3840154</v>
       </c>
       <c r="D78">
-        <v>2244995</v>
+        <v>4741944</v>
       </c>
       <c r="E78">
-        <v>1102611</v>
+        <v>901790</v>
       </c>
       <c r="F78">
-        <v>0.1949712224304676</v>
+        <v>0.2123698620125651</v>
       </c>
       <c r="G78">
-        <v>220985</v>
+        <v>226835</v>
       </c>
       <c r="H78">
-        <v>476848</v>
+        <v>482674</v>
       </c>
       <c r="I78">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2749,25 +2749,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1196561865508556</v>
+        <v>0.3436621229629964</v>
       </c>
       <c r="C79">
-        <v>1257205</v>
+        <v>2730291</v>
       </c>
       <c r="D79">
-        <v>2155021</v>
+        <v>3584399</v>
       </c>
       <c r="E79">
-        <v>897816</v>
+        <v>854108</v>
       </c>
       <c r="F79">
-        <v>0.2010412402451038</v>
+        <v>0.3288014619611204</v>
       </c>
       <c r="G79">
-        <v>220145</v>
+        <v>227379</v>
       </c>
       <c r="H79">
-        <v>475984</v>
+        <v>483218</v>
       </c>
       <c r="I79">
         <v>255839</v>
@@ -2778,28 +2778,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.138232983648777</v>
+        <v>0.1944679690059274</v>
       </c>
       <c r="C80">
-        <v>1134952</v>
+        <v>3450580</v>
       </c>
       <c r="D80">
-        <v>2194393</v>
+        <v>4342556</v>
       </c>
       <c r="E80">
-        <v>1059441</v>
+        <v>891976</v>
       </c>
       <c r="F80">
-        <v>0.1829222962260246</v>
+        <v>0.227686386089772</v>
       </c>
       <c r="G80">
-        <v>214713</v>
+        <v>223827</v>
       </c>
       <c r="H80">
-        <v>470576</v>
+        <v>479666</v>
       </c>
       <c r="I80">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2807,28 +2807,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.2078709416091442</v>
+        <v>0.2418806279310957</v>
       </c>
       <c r="C81">
-        <v>1209200</v>
+        <v>3431443</v>
       </c>
       <c r="D81">
-        <v>2089825</v>
+        <v>4272613</v>
       </c>
       <c r="E81">
-        <v>880625</v>
+        <v>841170</v>
       </c>
       <c r="F81">
-        <v>0.1379944048821926</v>
+        <v>0.2287487369030714</v>
       </c>
       <c r="G81">
-        <v>219353</v>
+        <v>226579</v>
       </c>
       <c r="H81">
-        <v>475216</v>
+        <v>482418</v>
       </c>
       <c r="I81">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2836,28 +2836,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.09596337005496025</v>
+        <v>0.2588347839191556</v>
       </c>
       <c r="C82">
-        <v>1286874</v>
+        <v>2968522</v>
       </c>
       <c r="D82">
-        <v>2349189</v>
+        <v>3952452</v>
       </c>
       <c r="E82">
-        <v>1062315</v>
+        <v>983930</v>
       </c>
       <c r="F82">
-        <v>0.19752037525177</v>
+        <v>0.2188117090845481</v>
       </c>
       <c r="G82">
-        <v>221977</v>
+        <v>222227</v>
       </c>
       <c r="H82">
-        <v>477840</v>
+        <v>478066</v>
       </c>
       <c r="I82">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2865,28 +2865,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.09696569293737411</v>
+        <v>0.1946651160251349</v>
       </c>
       <c r="C83">
-        <v>1173579</v>
+        <v>3359652</v>
       </c>
       <c r="D83">
-        <v>2181030</v>
+        <v>4241420</v>
       </c>
       <c r="E83">
-        <v>1007451</v>
+        <v>881768</v>
       </c>
       <c r="F83">
-        <v>0.2257553599774837</v>
+        <v>0.2115057109622285</v>
       </c>
       <c r="G83">
-        <v>219097</v>
+        <v>226643</v>
       </c>
       <c r="H83">
-        <v>474960</v>
+        <v>482482</v>
       </c>
       <c r="I83">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2894,25 +2894,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1693913377821445</v>
+        <v>0.2857994759688154</v>
       </c>
       <c r="C84">
-        <v>1261176</v>
+        <v>3077207</v>
       </c>
       <c r="D84">
-        <v>2114643</v>
+        <v>3844534</v>
       </c>
       <c r="E84">
-        <v>853467</v>
+        <v>767327</v>
       </c>
       <c r="F84">
-        <v>0.2372425124049187</v>
+        <v>0.2397297010757029</v>
       </c>
       <c r="G84">
-        <v>221081</v>
+        <v>224987</v>
       </c>
       <c r="H84">
-        <v>476944</v>
+        <v>480850</v>
       </c>
       <c r="I84">
         <v>255863</v>
@@ -2923,28 +2923,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1157520823180676</v>
+        <v>0.2197737019741908</v>
       </c>
       <c r="C85">
-        <v>1119299</v>
+        <v>3496299</v>
       </c>
       <c r="D85">
-        <v>2167049</v>
+        <v>4345131</v>
       </c>
       <c r="E85">
-        <v>1047750</v>
+        <v>848832</v>
       </c>
       <c r="F85">
-        <v>0.2032997645437717</v>
+        <v>0.2206077988957986</v>
       </c>
       <c r="G85">
-        <v>219345</v>
+        <v>224027</v>
       </c>
       <c r="H85">
-        <v>475184</v>
+        <v>479890</v>
       </c>
       <c r="I85">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2952,28 +2952,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1846088580787182</v>
+        <v>0.2155466780532151</v>
       </c>
       <c r="C86">
-        <v>1150709</v>
+        <v>3315385</v>
       </c>
       <c r="D86">
-        <v>2187701</v>
+        <v>4209746</v>
       </c>
       <c r="E86">
-        <v>1036992</v>
+        <v>894361</v>
       </c>
       <c r="F86">
-        <v>0.1916510574519634</v>
+        <v>0.2029701819410548</v>
       </c>
       <c r="G86">
-        <v>217241</v>
+        <v>226739</v>
       </c>
       <c r="H86">
-        <v>473104</v>
+        <v>482578</v>
       </c>
       <c r="I86">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2981,28 +2981,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.1502936445176601</v>
+        <v>0.1686148139415309</v>
       </c>
       <c r="C87">
-        <v>1079630</v>
+        <v>3190317</v>
       </c>
       <c r="D87">
-        <v>2057852</v>
+        <v>4063044</v>
       </c>
       <c r="E87">
-        <v>978222</v>
+        <v>872727</v>
       </c>
       <c r="F87">
-        <v>0.2759082689881325</v>
+        <v>0.2673584369476885</v>
       </c>
       <c r="G87">
-        <v>221305</v>
+        <v>225715</v>
       </c>
       <c r="H87">
-        <v>477168</v>
+        <v>481554</v>
       </c>
       <c r="I87">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3010,25 +3010,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1263643763959408</v>
+        <v>0.3639383920235559</v>
       </c>
       <c r="C88">
-        <v>1101226</v>
+        <v>3540290</v>
       </c>
       <c r="D88">
-        <v>2170517</v>
+        <v>4437297</v>
       </c>
       <c r="E88">
-        <v>1069291</v>
+        <v>897007</v>
       </c>
       <c r="F88">
-        <v>0.1425374038517475</v>
+        <v>0.2625601090257987</v>
       </c>
       <c r="G88">
-        <v>220441</v>
+        <v>225115</v>
       </c>
       <c r="H88">
-        <v>476304</v>
+        <v>480978</v>
       </c>
       <c r="I88">
         <v>255863</v>
@@ -3039,28 +3039,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.2825291343033314</v>
+        <v>0.188104689004831</v>
       </c>
       <c r="C89">
-        <v>1343652</v>
+        <v>2983471</v>
       </c>
       <c r="D89">
-        <v>2428462</v>
+        <v>3842954</v>
       </c>
       <c r="E89">
-        <v>1084810</v>
+        <v>859483</v>
       </c>
       <c r="F89">
-        <v>0.1980267576873302</v>
+        <v>0.2163716580253094</v>
       </c>
       <c r="G89">
-        <v>218321</v>
+        <v>224731</v>
       </c>
       <c r="H89">
-        <v>474160</v>
+        <v>480594</v>
       </c>
       <c r="I89">
-        <v>255839</v>
+        <v>255863</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3068,28 +3068,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1812646463513374</v>
+        <v>0.07891227398067713</v>
       </c>
       <c r="C90">
-        <v>1162100</v>
+        <v>1076523</v>
       </c>
       <c r="D90">
-        <v>2113212</v>
+        <v>2051459</v>
       </c>
       <c r="E90">
-        <v>951112</v>
+        <v>974936</v>
       </c>
       <c r="F90">
-        <v>0.1809650547802448</v>
+        <v>0.2578062809770927</v>
       </c>
       <c r="G90">
-        <v>219417</v>
+        <v>224531</v>
       </c>
       <c r="H90">
-        <v>475280</v>
+        <v>480370</v>
       </c>
       <c r="I90">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1374984569847584</v>
+        <v>0.2343294780002907</v>
       </c>
       <c r="C91">
-        <v>1144473</v>
+        <v>3813796</v>
       </c>
       <c r="D91">
-        <v>2229538</v>
+        <v>4647820</v>
       </c>
       <c r="E91">
-        <v>1085065</v>
+        <v>834024</v>
       </c>
       <c r="F91">
-        <v>0.1947013884782791</v>
+        <v>0.2352109280182049</v>
       </c>
       <c r="G91">
-        <v>219577</v>
+        <v>228827</v>
       </c>
       <c r="H91">
-        <v>475440</v>
+        <v>484690</v>
       </c>
       <c r="I91">
         <v>255863</v>
@@ -3126,28 +3126,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1146821863949299</v>
+        <v>0.1755965679185465</v>
       </c>
       <c r="C92">
-        <v>1209181</v>
+        <v>3129348</v>
       </c>
       <c r="D92">
-        <v>2236610</v>
+        <v>3966711</v>
       </c>
       <c r="E92">
-        <v>1027429</v>
+        <v>837363</v>
       </c>
       <c r="F92">
-        <v>0.1937772296369076</v>
+        <v>0.2112311728997156</v>
       </c>
       <c r="G92">
-        <v>221081</v>
+        <v>223891</v>
       </c>
       <c r="H92">
-        <v>476944</v>
+        <v>479730</v>
       </c>
       <c r="I92">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3155,28 +3155,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1653699763119221</v>
+        <v>0.2079218820435926</v>
       </c>
       <c r="C93">
-        <v>1327590</v>
+        <v>2800078</v>
       </c>
       <c r="D93">
-        <v>2314581</v>
+        <v>3713204</v>
       </c>
       <c r="E93">
-        <v>986991</v>
+        <v>913126</v>
       </c>
       <c r="F93">
-        <v>0.2227619104087353</v>
+        <v>0.2207822920754552</v>
       </c>
       <c r="G93">
-        <v>221241</v>
+        <v>224531</v>
       </c>
       <c r="H93">
-        <v>477104</v>
+        <v>480370</v>
       </c>
       <c r="I93">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3184,25 +3184,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1968640796840191</v>
+        <v>0.1891939009074122</v>
       </c>
       <c r="C94">
-        <v>1208124</v>
+        <v>3254056</v>
       </c>
       <c r="D94">
-        <v>2147139</v>
+        <v>4158163</v>
       </c>
       <c r="E94">
-        <v>939015</v>
+        <v>904107</v>
       </c>
       <c r="F94">
-        <v>0.1782168410718441</v>
+        <v>0.2208649930544198</v>
       </c>
       <c r="G94">
-        <v>216369</v>
+        <v>223443</v>
       </c>
       <c r="H94">
-        <v>472208</v>
+        <v>479282</v>
       </c>
       <c r="I94">
         <v>255839</v>
@@ -3213,28 +3213,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1208108961582184</v>
+        <v>0.1913130000466481</v>
       </c>
       <c r="C95">
-        <v>1120778</v>
+        <v>3311776</v>
       </c>
       <c r="D95">
-        <v>2106632</v>
+        <v>4176633</v>
       </c>
       <c r="E95">
-        <v>985854</v>
+        <v>864857</v>
       </c>
       <c r="F95">
-        <v>0.1945568397641182</v>
+        <v>0.2737917379708961</v>
       </c>
       <c r="G95">
-        <v>221337</v>
+        <v>224267</v>
       </c>
       <c r="H95">
-        <v>477200</v>
+        <v>480106</v>
       </c>
       <c r="I95">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3242,25 +3242,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.3021107725799084</v>
+        <v>0.1533553920453414</v>
       </c>
       <c r="C96">
-        <v>1289963</v>
+        <v>2750841</v>
       </c>
       <c r="D96">
-        <v>2273274</v>
+        <v>3543479</v>
       </c>
       <c r="E96">
-        <v>983311</v>
+        <v>792638</v>
       </c>
       <c r="F96">
-        <v>0.1862674616277218</v>
+        <v>0.2180439119692892</v>
       </c>
       <c r="G96">
-        <v>220345</v>
+        <v>225051</v>
       </c>
       <c r="H96">
-        <v>476208</v>
+        <v>480914</v>
       </c>
       <c r="I96">
         <v>255863</v>
@@ -3271,28 +3271,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1739677675068378</v>
+        <v>0.1941071329638362</v>
       </c>
       <c r="C97">
-        <v>1139637</v>
+        <v>3018221</v>
       </c>
       <c r="D97">
-        <v>2101291</v>
+        <v>3826408</v>
       </c>
       <c r="E97">
-        <v>961654</v>
+        <v>808187</v>
       </c>
       <c r="F97">
-        <v>0.1865373998880386</v>
+        <v>0.2582804710837081</v>
       </c>
       <c r="G97">
-        <v>220377</v>
+        <v>227699</v>
       </c>
       <c r="H97">
-        <v>476240</v>
+        <v>483538</v>
       </c>
       <c r="I97">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3300,25 +3300,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.09848463162779808</v>
+        <v>0.2149405570235103</v>
       </c>
       <c r="C98">
-        <v>1195995</v>
+        <v>3676242</v>
       </c>
       <c r="D98">
-        <v>2114098</v>
+        <v>4506660</v>
       </c>
       <c r="E98">
-        <v>918103</v>
+        <v>830418</v>
       </c>
       <c r="F98">
-        <v>0.1917729862034321</v>
+        <v>0.2125111439963803</v>
       </c>
       <c r="G98">
-        <v>219377</v>
+        <v>227859</v>
       </c>
       <c r="H98">
-        <v>475216</v>
+        <v>483698</v>
       </c>
       <c r="I98">
         <v>255839</v>
@@ -3329,25 +3329,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.234190434217453</v>
+        <v>0.1062981840223074</v>
       </c>
       <c r="C99">
-        <v>1293002</v>
+        <v>1031211</v>
       </c>
       <c r="D99">
-        <v>2287568</v>
+        <v>2015034</v>
       </c>
       <c r="E99">
-        <v>994566</v>
+        <v>983823</v>
       </c>
       <c r="F99">
-        <v>0.1934619583189487</v>
+        <v>0.2096113709267229</v>
       </c>
       <c r="G99">
-        <v>218297</v>
+        <v>228283</v>
       </c>
       <c r="H99">
-        <v>474160</v>
+        <v>484146</v>
       </c>
       <c r="I99">
         <v>255863</v>
@@ -3358,25 +3358,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1309566423296928</v>
+        <v>0.1577175119891763</v>
       </c>
       <c r="C100">
-        <v>1114711</v>
+        <v>1048295</v>
       </c>
       <c r="D100">
-        <v>2111956</v>
+        <v>2023168</v>
       </c>
       <c r="E100">
-        <v>997245</v>
+        <v>974873</v>
       </c>
       <c r="F100">
-        <v>0.2100976258516312</v>
+        <v>0.2321490339236334</v>
       </c>
       <c r="G100">
-        <v>219993</v>
+        <v>227515</v>
       </c>
       <c r="H100">
-        <v>475856</v>
+        <v>483378</v>
       </c>
       <c r="I100">
         <v>255863</v>
@@ -3387,28 +3387,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1679719835519791</v>
+        <v>0.1627522119088098</v>
       </c>
       <c r="C101">
-        <v>1233335</v>
+        <v>2762183</v>
       </c>
       <c r="D101">
-        <v>2156603</v>
+        <v>3583716</v>
       </c>
       <c r="E101">
-        <v>923268</v>
+        <v>821533</v>
       </c>
       <c r="F101">
-        <v>0.202768050134182</v>
+        <v>0.2113936509704217</v>
       </c>
       <c r="G101">
-        <v>216793</v>
+        <v>224531</v>
       </c>
       <c r="H101">
-        <v>472656</v>
+        <v>480370</v>
       </c>
       <c r="I101">
-        <v>255863</v>
+        <v>255839</v>
       </c>
     </row>
   </sheetData>
